--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.4044994856628938</v>
+        <v>0.4092030496915097</v>
       </c>
       <c r="D2">
-        <v>0.685896977931383</v>
+        <v>0.6863471501900005</v>
       </c>
       <c r="E2">
         <v>0.6696184663536487</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.9623848606285343</v>
+        <v>-1.186590314980815</v>
       </c>
       <c r="D3">
-        <v>0.3359948937699007</v>
+        <v>0.2480455526801508</v>
       </c>
       <c r="E3">
         <v>0.6696184663536487</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7809337793639354</v>
+        <v>-0.9545872097143744</v>
       </c>
       <c r="D4">
-        <v>0.4349515336622807</v>
+        <v>0.3501586132443055</v>
       </c>
       <c r="E4">
         <v>0.6696184663536487</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.5469371954285098</v>
+        <v>-0.5560064002629599</v>
       </c>
       <c r="D5">
-        <v>0.5844945621333317</v>
+        <v>0.583817679544365</v>
       </c>
       <c r="E5">
         <v>0.6696184663536487</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.291010022005302</v>
+        <v>-1.037338867522083</v>
       </c>
       <c r="D6">
-        <v>0.196877925978679</v>
+        <v>0.3108458365873463</v>
       </c>
       <c r="E6">
         <v>0.6590191127476178</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.054768983814365</v>
+        <v>-0.8556429826365585</v>
       </c>
       <c r="D7">
-        <v>0.291682747040493</v>
+        <v>0.4014184801490595</v>
       </c>
       <c r="E7">
         <v>0.6590191127476178</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.841361486512116</v>
+        <v>-0.7428556367503022</v>
       </c>
       <c r="D8">
-        <v>0.4002652660509092</v>
+        <v>0.4654280414399126</v>
       </c>
       <c r="E8">
         <v>0.6590191127476178</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.08674735934602962</v>
+        <v>0.09830806759517204</v>
       </c>
       <c r="D9">
-        <v>0.9308826746367531</v>
+        <v>0.9225778896668391</v>
       </c>
       <c r="E9">
         <v>0.6937854258971373</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2478300865910946</v>
+        <v>0.252114352602187</v>
       </c>
       <c r="D10">
-        <v>0.8042961791941576</v>
+        <v>0.8032930674845249</v>
       </c>
       <c r="E10">
         <v>0.6937854258971373</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.1299711041948324</v>
+        <v>0.1432549447867733</v>
       </c>
       <c r="D11">
-        <v>0.8966048568798077</v>
+        <v>0.8873928631734185</v>
       </c>
       <c r="E11">
         <v>0.6914536970612655</v>
